--- a/Program/Other/LM085_底稿_逾期月報表.xlsx
+++ b/Program/Other/LM085_底稿_逾期月報表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKL_SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF89E6F-CE79-4391-BCE2-2816B7C82F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X月" sheetId="2" r:id="rId1"/>
@@ -33,27 +34,18 @@
     <definedName name="新" localSheetId="1">#REF!</definedName>
     <definedName name="新">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>A220762620</author>
     <author>放款部放款管理課唐偉傑</author>
   </authors>
   <commentList>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="1" shapeId="0">
+    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0">
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -194,13 +186,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>A220762620</author>
     <author>放款部放款管理課唐偉傑</author>
   </authors>
   <commentList>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="1" shapeId="0">
+    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -321,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0">
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1721,7 +1713,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="15">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -3234,7 +3226,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3246,25 +3238,20 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="24" fillId="34" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="46" applyFont="1"/>
-    <xf numFmtId="178" fontId="25" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="178" fontId="25" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="179" fontId="27" fillId="34" borderId="10" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="22" fillId="33" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3273,43 +3260,40 @@
     <xf numFmtId="179" fontId="22" fillId="33" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="22" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="22" fillId="34" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="35" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="34" fillId="0" borderId="17" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3318,28 +3302,28 @@
     <xf numFmtId="0" fontId="29" fillId="34" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="15" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="34" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="15" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="34" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="21" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="21" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="34" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="34" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="34" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="34" fillId="36" borderId="27" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3427,7 +3411,7 @@
     <xf numFmtId="186" fontId="34" fillId="34" borderId="11" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="22" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="32" fillId="0" borderId="14" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3506,11 +3490,11 @@
     <xf numFmtId="0" fontId="44" fillId="38" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="32" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="32" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="34" fillId="0" borderId="14" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="34" fillId="0" borderId="14" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="34" fillId="36" borderId="13" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3532,10 +3516,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="46" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="34" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3552,145 +3536,134 @@
     <xf numFmtId="179" fontId="25" fillId="34" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="34" fillId="0" borderId="11" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1"/>
     <xf numFmtId="182" fontId="34" fillId="0" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="34" fillId="0" borderId="37" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="22" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="46" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="34" fillId="0" borderId="27" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="34" fillId="0" borderId="13" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="34" fillId="0" borderId="18" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="27" fillId="0" borderId="10" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="25" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="69" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="69" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="51" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="68" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="64" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="64" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="52" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3708,7 +3681,7 @@
     <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3718,24 +3691,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="52" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="46" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="59" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="59" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="52" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="56" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3744,42 +3717,42 @@
     <xf numFmtId="178" fontId="55" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="51" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="46" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="51" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="46" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="46" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="29" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="29" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="28" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="0" borderId="26" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="46" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="29" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="29" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="28" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="26" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="34" fillId="0" borderId="25" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3788,7 +3761,7 @@
     <xf numFmtId="10" fontId="34" fillId="0" borderId="25" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="35" fillId="0" borderId="20" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="20" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="34" fillId="0" borderId="23" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3797,7 +3770,7 @@
     <xf numFmtId="10" fontId="34" fillId="0" borderId="23" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="34" fillId="0" borderId="23" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="34" fillId="0" borderId="23" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="34" fillId="0" borderId="21" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3806,154 +3779,206 @@
     <xf numFmtId="10" fontId="34" fillId="0" borderId="21" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="34" fillId="0" borderId="21" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="34" fillId="0" borderId="25" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="0" borderId="20" xfId="46" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="34" fillId="0" borderId="21" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="34" fillId="0" borderId="25" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="20" xfId="46" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="39" fillId="0" borderId="23" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="35" fillId="0" borderId="22" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="34" fillId="0" borderId="15" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="22" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="34" fillId="0" borderId="15" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="34" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="35" fillId="0" borderId="19" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="35" fillId="0" borderId="16" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="19" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="35" fillId="0" borderId="16" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="34" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="34" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="46" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="34" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="33" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="16" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="181" fontId="22" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="181" fontId="22" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="184" fontId="61" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="61" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="61" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="61" fillId="0" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="34" fillId="0" borderId="18" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="34" fillId="0" borderId="32" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="34" fillId="0" borderId="27" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="34" fillId="0" borderId="35" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="46" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" xfId="46" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="40" fillId="0" borderId="36" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="0" borderId="10" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="45" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="45" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="46" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="0" borderId="10" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="0" borderId="35" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="0" borderId="38" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="0" borderId="32" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="179" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="182" fontId="60" fillId="0" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="60" fillId="0" borderId="17" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="74" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="60" fillId="0" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="60" fillId="0" borderId="17" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="74" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="73" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="46" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="45" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="45" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="45" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="45" fillId="0" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="34" fillId="0" borderId="27" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="34" fillId="0" borderId="35" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="46" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="45" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="45" fillId="0" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="54" fillId="0" borderId="27" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3968,30 +3993,30 @@
     <xf numFmtId="182" fontId="54" fillId="0" borderId="32" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="32" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1"/>
     <xf numFmtId="182" fontId="32" fillId="0" borderId="38" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="51" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="46" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="51" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="58" fillId="0" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4003,123 +4028,310 @@
     <xf numFmtId="182" fontId="54" fillId="0" borderId="12" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="54" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="34" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="33" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="16" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="0" borderId="10" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="0" borderId="35" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="0" borderId="38" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="0" borderId="32" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="176" fontId="87" fillId="34" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="38" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="38" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="35" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="34" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="34" borderId="38" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="35" borderId="10" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="35" borderId="35" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="35" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="35" borderId="38" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="35" borderId="32" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="32" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="60" fillId="34" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="60" fillId="34" borderId="17" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="61" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="61" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="61" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="61" fillId="0" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="34" fillId="34" borderId="27" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="34" fillId="34" borderId="35" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="58" fillId="0" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="58" fillId="0" borderId="37" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="54" fillId="0" borderId="24" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="54" fillId="0" borderId="39" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="34" fillId="39" borderId="18" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="34" fillId="39" borderId="32" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="0" borderId="24" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="51" fillId="0" borderId="39" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="37" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="0" borderId="24" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="0" borderId="39" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="0" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="40" fillId="34" borderId="36" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="37" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="37" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="37" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="54" fillId="37" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="35" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="32" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="34" fillId="37" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="34" fillId="37" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="37" borderId="13" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="37" borderId="12" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="0" borderId="13" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="10" fontId="34" fillId="0" borderId="12" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="34" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="34" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="179" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="0" borderId="10" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="22" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="22" fillId="34" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="181" fontId="22" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="22" fillId="34" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="182" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="46" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="61" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="61" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="61" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="61" fillId="0" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="34" fillId="0" borderId="18" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="34" fillId="0" borderId="32" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="32" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="36" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="34" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="27" fillId="34" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4137,260 +4349,15 @@
     <xf numFmtId="181" fontId="22" fillId="33" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="27" fillId="34" borderId="10" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="27" fillId="34" borderId="10" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="34" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="34" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="181" fontId="22" fillId="34" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="181" fontId="22" fillId="34" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="37" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="37" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="34" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="34" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="37" borderId="13" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="37" borderId="12" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="0" borderId="13" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="0" borderId="12" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="37" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="37" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="37" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="37" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="38" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="35" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="32" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="0" borderId="24" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="51" fillId="0" borderId="39" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="34" fillId="39" borderId="18" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="34" fillId="39" borderId="32" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="37" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="24" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="39" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="40" fillId="34" borderId="36" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="32" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="60" fillId="34" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="60" fillId="34" borderId="17" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="61" fillId="0" borderId="27" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="61" fillId="0" borderId="35" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="61" fillId="0" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="61" fillId="0" borderId="32" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="34" fillId="34" borderId="27" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="34" fillId="34" borderId="35" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="58" fillId="0" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="58" fillId="0" borderId="37" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="54" fillId="0" borderId="24" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="54" fillId="0" borderId="39" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="87" fillId="34" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="38" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="38" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="35" borderId="13" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="14" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="34" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="32" fillId="34" borderId="38" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="35" borderId="10" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="35" borderId="35" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="35" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="35" borderId="38" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="34" fillId="35" borderId="32" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4413,16 +4380,16 @@
     <cellStyle name="60% - 輔色5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 輔色6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="19"/>
-    <cellStyle name="一般 3" xfId="46"/>
-    <cellStyle name="一般 3 2" xfId="20"/>
-    <cellStyle name="千分位 2" xfId="21"/>
-    <cellStyle name="千分位 3" xfId="22"/>
-    <cellStyle name="千分位 4" xfId="48"/>
+    <cellStyle name="一般 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="一般 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="一般 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="千分位 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="千分位 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="千分位 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="中等" xfId="23" builtinId="28" customBuiltin="1"/>
     <cellStyle name="合計" xfId="24" builtinId="25" customBuiltin="1"/>
     <cellStyle name="好" xfId="25" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="百分比 2" xfId="47"/>
+    <cellStyle name="百分比 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="計算方式" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="連結的儲存格" xfId="27" builtinId="24" customBuiltin="1"/>
     <cellStyle name="備註" xfId="28" builtinId="10" customBuiltin="1"/>
@@ -4474,7 +4441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4522,7 +4495,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 4"/>
+        <xdr:cNvPr id="3" name="Line 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4570,7 +4549,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 6"/>
+        <xdr:cNvPr id="4" name="Line 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4618,7 +4603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 9"/>
+        <xdr:cNvPr id="5" name="Line 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4666,7 +4657,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 12"/>
+        <xdr:cNvPr id="6" name="Line 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4714,7 +4711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 14"/>
+        <xdr:cNvPr id="7" name="Line 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4767,7 +4770,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4815,7 +4824,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 4"/>
+        <xdr:cNvPr id="3" name="Line 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4863,7 +4878,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 6"/>
+        <xdr:cNvPr id="4" name="Line 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4911,7 +4932,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 9"/>
+        <xdr:cNvPr id="5" name="Line 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4959,7 +4986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 12"/>
+        <xdr:cNvPr id="6" name="Line 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5007,7 +5040,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 14"/>
+        <xdr:cNvPr id="7" name="Line 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5060,7 +5099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5108,7 +5153,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 4"/>
+        <xdr:cNvPr id="3" name="Line 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5156,7 +5207,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 6"/>
+        <xdr:cNvPr id="4" name="Line 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5204,7 +5261,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 9"/>
+        <xdr:cNvPr id="5" name="Line 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5252,7 +5315,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 12"/>
+        <xdr:cNvPr id="6" name="Line 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5300,7 +5369,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 14"/>
+        <xdr:cNvPr id="7" name="Line 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -5337,7 +5412,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="請求訊息"/>
@@ -5391,9 +5466,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5431,9 +5506,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5468,7 +5543,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5503,7 +5578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5676,1390 +5751,1384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="44"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="26" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="2" customWidth="1"/>
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.6328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="257" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="73"/>
-      <c r="O1" s="73"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="69"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="227"/>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="73"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="O2" s="73"/>
+      <c r="A2" s="294"/>
+      <c r="B2" s="294"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="69"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="74"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" ht="54.75" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="258" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="259" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="243" t="s">
+      <c r="C4" s="260"/>
+      <c r="D4" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="244"/>
-      <c r="F4" s="245" t="s">
+      <c r="E4" s="262"/>
+      <c r="F4" s="263" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="228" t="s">
+      <c r="G4" s="295" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A5" s="240"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="223"/>
+      <c r="B5" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="246"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-    </row>
-    <row r="6" spans="1:15" ht="22" customHeight="1">
-      <c r="A6" s="153" t="s">
+      <c r="F5" s="264"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+    </row>
+    <row r="6" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A6" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64">
+      <c r="B6" s="114"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60">
         <f>C6+E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="161">
+      <c r="G6" s="67"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="301"/>
+      <c r="K6" s="301"/>
+      <c r="L6" s="152">
         <f>J6-G6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-    </row>
-    <row r="7" spans="1:15" ht="22" customHeight="1">
-      <c r="A7" s="153" t="s">
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+    </row>
+    <row r="7" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A7" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64">
+      <c r="B7" s="64"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60">
         <f t="shared" ref="F7:F10" si="0">C7+E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="162" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="302"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="161">
+      <c r="J7" s="301"/>
+      <c r="K7" s="301"/>
+      <c r="L7" s="152">
         <f>J7-G7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-    </row>
-    <row r="8" spans="1:15" ht="22" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+    </row>
+    <row r="8" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A8" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165">
+      <c r="G8" s="59"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="156">
         <f>H8-G8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="166">
+      <c r="J8" s="157">
         <f>[1]SKL_TOL!$H$882</f>
         <v>0</v>
       </c>
-      <c r="K8" s="167">
+      <c r="K8" s="158">
         <f>J8-E8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="168"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-    </row>
-    <row r="9" spans="1:15" ht="22" customHeight="1">
-      <c r="A9" s="153" t="s">
+      <c r="L8" s="159"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+    </row>
+    <row r="9" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A9" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="59">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="165">
+      <c r="H9" s="155"/>
+      <c r="I9" s="156">
         <f>H9-F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="169"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="55">
         <f>SUM(B6:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="55">
         <f>SUM(C6:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="55">
         <f>SUM(D6:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="55">
         <f>SUM(E6:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="54">
         <f>SUM(G6:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="170"/>
-      <c r="I10" s="165">
+      <c r="H10" s="161"/>
+      <c r="I10" s="156">
         <f>H10-G10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="225" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="230"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173">
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164">
         <f>H11-E10</f>
         <v>0</v>
       </c>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A12" s="265" t="s">
+      <c r="A12" s="274" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="231"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="275"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="293"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A13" s="267"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="263" t="s">
+      <c r="A13" s="276"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="280" t="s">
+      <c r="F13" s="247" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="281"/>
-      <c r="H13" s="174" t="e">
+      <c r="G13" s="248"/>
+      <c r="H13" s="165" t="e">
         <f>-B20/G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="175" t="s">
+      <c r="I13" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-    </row>
-    <row r="14" spans="1:15" ht="18">
-      <c r="A14" s="124" t="s">
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.399999999999999">
+      <c r="A14" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="311" t="s">
+      <c r="B14" s="302" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="312"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="264"/>
-      <c r="F14" s="282" t="s">
+      <c r="C14" s="303"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="249" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="283"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="157"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="148"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="233" t="s">
+      <c r="C15" s="299"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="303" t="e">
+      <c r="F15" s="214" t="e">
         <f>F10/G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="304"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="157"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="148"/>
     </row>
     <row r="16" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="259" t="e">
+      <c r="B16" s="268" t="e">
         <f>F10/B23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C16" s="260"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="306"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A17" s="234"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="126" t="s">
+      <c r="A17" s="256"/>
+      <c r="B17" s="270"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="257" t="e">
+      <c r="F17" s="220" t="e">
         <f>$I$17/$H$17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="258"/>
-      <c r="H17" s="178">
+      <c r="G17" s="221"/>
+      <c r="H17" s="169">
         <f>G10-H18</f>
         <v>0</v>
       </c>
-      <c r="I17" s="179">
+      <c r="I17" s="170">
         <f>F10-F7</f>
         <v>0</v>
       </c>
-      <c r="J17" s="180" t="s">
+      <c r="J17" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A18" s="273" t="s">
+      <c r="A18" s="282" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="274" t="e">
+      <c r="B18" s="283" t="e">
         <f>-B20/F10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C18" s="275"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="127" t="s">
+      <c r="C18" s="284"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="307" t="e">
+      <c r="F18" s="218" t="e">
         <f>I18/H18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="308"/>
-      <c r="H18" s="178">
+      <c r="G18" s="219"/>
+      <c r="H18" s="169">
         <f>G7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="181">
+      <c r="I18" s="172">
         <f>F7</f>
         <v>0</v>
       </c>
-      <c r="J18" s="182">
+      <c r="J18" s="173">
         <f>SUM(H17:H18)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A19" s="273"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="128" t="s">
+      <c r="A19" s="282"/>
+      <c r="B19" s="283"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="257" t="e">
+      <c r="F19" s="220" t="e">
         <f>I19/H19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="258"/>
-      <c r="H19" s="178">
+      <c r="G19" s="221"/>
+      <c r="H19" s="169">
         <f>G10-H20</f>
         <v>0</v>
       </c>
-      <c r="I19" s="181">
+      <c r="I19" s="172">
         <f>F10-F7</f>
         <v>0</v>
       </c>
-      <c r="J19" s="182"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A20" s="272" t="s">
+      <c r="A20" s="281" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="269"/>
-      <c r="C20" s="270"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="129" t="s">
+      <c r="B20" s="278"/>
+      <c r="C20" s="279"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="307" t="e">
+      <c r="F20" s="218" t="e">
         <f>I20/H20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="308"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="181">
+      <c r="G20" s="219"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="172">
         <f>F7</f>
         <v>0</v>
       </c>
-      <c r="J20" s="182">
+      <c r="J20" s="173">
         <f>SUM(H19:H20)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A21" s="272"/>
-      <c r="B21" s="269"/>
-      <c r="C21" s="270"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
+      <c r="A21" s="281"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="279"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A22" s="272"/>
-      <c r="B22" s="269"/>
-      <c r="C22" s="270"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="247" t="s">
+      <c r="A22" s="281"/>
+      <c r="B22" s="278"/>
+      <c r="C22" s="279"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="247" t="s">
+      <c r="F22" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="247" t="s">
+      <c r="G22" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="178"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A23" s="271" t="s">
+      <c r="A23" s="280" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="276">
+      <c r="B23" s="285">
         <f>G10+H26</f>
         <v>0</v>
       </c>
-      <c r="C23" s="277"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A24" s="271"/>
-      <c r="B24" s="276"/>
-      <c r="C24" s="277"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="130" t="s">
+      <c r="C23" s="286"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="280"/>
+      <c r="B24" s="285"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-    </row>
-    <row r="25" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A25" s="271"/>
-      <c r="B25" s="276"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="131" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="280"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="286"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="186">
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="177">
         <f>H25-B23</f>
         <v>0</v>
       </c>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
     </row>
     <row r="26" spans="1:14" ht="27" customHeight="1">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="313"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="187" t="s">
+      <c r="B26" s="230"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="123"/>
-    </row>
-    <row r="27" spans="1:14" ht="19.149999999999999" customHeight="1">
-      <c r="A27" s="247" t="s">
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="116"/>
+    </row>
+    <row r="27" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A27" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="251"/>
-      <c r="C27" s="252"/>
-      <c r="D27" s="299" t="s">
+      <c r="B27" s="233"/>
+      <c r="C27" s="266"/>
+      <c r="D27" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="300"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="134" t="s">
+      <c r="E27" s="238"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="189"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="223" t="s">
+      <c r="H27" s="180"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="224"/>
-      <c r="L27" s="220" t="s">
+      <c r="K27" s="291"/>
+      <c r="L27" s="287" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="221"/>
-      <c r="N27" s="222"/>
-    </row>
-    <row r="28" spans="1:14" ht="19.149999999999999" customHeight="1">
-      <c r="A28" s="248"/>
-      <c r="B28" s="253"/>
-      <c r="C28" s="254"/>
-      <c r="D28" s="309" t="s">
+      <c r="M27" s="288"/>
+      <c r="N27" s="289"/>
+    </row>
+    <row r="28" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A28" s="265"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="267"/>
+      <c r="D28" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="310"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="135" t="s">
+      <c r="E28" s="225"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="191"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="195"/>
-      <c r="M28" s="196"/>
-      <c r="N28" s="197"/>
-    </row>
-    <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A29" s="136" t="s">
+      <c r="H28" s="182"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="188"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="249">
+      <c r="B29" s="226">
         <f>H29+SUM(B30:C32)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="250"/>
-      <c r="D29" s="255" t="e">
+      <c r="C29" s="227"/>
+      <c r="D29" s="228" t="e">
         <f>CONCATENATE(TEXT($G$10-B29,"0,000"),"       ",TEXT(($G$10-B29)/B29,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="256" t="str">
+      <c r="E29" s="229" t="str">
         <f t="shared" ref="E29:E33" si="1">CONCATENATE("108年度現階段累積達成率",TEXT(J25,"0.00%"),"     ",TEXT(J21,"0.00"))</f>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F29" s="137">
+      <c r="F29" s="130">
         <f t="shared" ref="F29:F33" si="2">L29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="38" t="e">
+      <c r="G29" s="34" t="e">
         <f>CONCATENATE(TEXT($G$10-F29,"0,000"),"       ",TEXT(($G$10-F29)/F29,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="198"/>
-      <c r="I29" s="37" t="s">
+      <c r="H29" s="189"/>
+      <c r="I29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="199">
+      <c r="J29" s="190">
         <f>(G10-H29)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="200" t="e">
+      <c r="K29" s="191" t="e">
         <f t="shared" ref="K29:K35" si="3">J29/B29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="198"/>
-      <c r="M29" s="199">
+      <c r="L29" s="189"/>
+      <c r="M29" s="190">
         <f>(G10-L29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="200" t="e">
+      <c r="N29" s="191" t="e">
         <f t="shared" ref="N29:N35" si="4">M29/F29</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A30" s="138" t="s">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="249"/>
-      <c r="C30" s="250"/>
-      <c r="D30" s="255" t="e">
+      <c r="B30" s="226"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="228" t="e">
         <f>CONCATENATE(TEXT(G6-B30,"0,000"),"       ",TEXT((G6-B30)/B30,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="256" t="str">
+      <c r="E30" s="229" t="str">
         <f t="shared" ref="E30" si="5">CONCATENATE("108年度現階段累積達成率",TEXT(J26,"0.00%"),"     ",TEXT(J22,"0.00"))</f>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F30" s="139"/>
-      <c r="G30" s="38" t="e">
+      <c r="F30" s="132"/>
+      <c r="G30" s="34" t="e">
         <f>CONCATENATE(TEXT(G6-F30,"0,000"),"       ",TEXT((G6-F30)/F30,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="201"/>
-      <c r="I30" s="35" t="s">
+      <c r="H30" s="192"/>
+      <c r="I30" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="202">
+      <c r="J30" s="193">
         <f>(G6-H30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="203" t="e">
+      <c r="K30" s="194" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="201"/>
-      <c r="M30" s="204">
+      <c r="L30" s="192"/>
+      <c r="M30" s="195">
         <f>(G6-L30)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="203" t="e">
+      <c r="N30" s="194" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A31" s="138" t="s">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="249"/>
-      <c r="C31" s="250"/>
-      <c r="D31" s="255" t="e">
+      <c r="B31" s="226"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="228" t="e">
         <f t="shared" ref="D31" si="6">CONCATENATE(TEXT(G7-B31,"0,000"),"       ",TEXT((G7-B31)/B31,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="256" t="str">
+      <c r="E31" s="229" t="str">
         <f t="shared" ref="E31:E32" si="7">CONCATENATE("108年度現階段累積達成率",TEXT(J27,"0.00%"),"     ",TEXT(J23,"0.00"))</f>
         <v>108年度現階段累積達成率上月增減     0.00</v>
       </c>
-      <c r="F31" s="139"/>
-      <c r="G31" s="38" t="e">
+      <c r="F31" s="132"/>
+      <c r="G31" s="34" t="e">
         <f>CONCATENATE(TEXT(G7-F31,"0,000"),"       ",TEXT((G7-F31)/F31,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="201"/>
-      <c r="I31" s="35" t="s">
+      <c r="H31" s="192"/>
+      <c r="I31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="202">
+      <c r="J31" s="193">
         <f>(G7-H31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="203" t="e">
+      <c r="K31" s="194" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="201"/>
-      <c r="M31" s="204">
+      <c r="L31" s="192"/>
+      <c r="M31" s="195">
         <f>(G7-L31)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="203" t="e">
+      <c r="N31" s="194" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A32" s="140" t="s">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="249"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="255" t="e">
+      <c r="B32" s="226"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="228" t="e">
         <f>CONCATENATE(TEXT(G8-B32+G9,"0,000"),"       ",TEXT((G8-B32+G9)/B32,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="256" t="str">
+      <c r="E32" s="229" t="str">
         <f t="shared" si="7"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F32" s="139"/>
-      <c r="G32" s="38" t="e">
+      <c r="F32" s="132"/>
+      <c r="G32" s="34" t="e">
         <f>CONCATENATE(TEXT(G8-F32+G9,"0,000"),"       ",TEXT((G8-F32+G9)/F32,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="201"/>
-      <c r="I32" s="34" t="s">
+      <c r="H32" s="192"/>
+      <c r="I32" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="205">
+      <c r="J32" s="196">
         <f>(G8-H32+G9)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="206" t="e">
+      <c r="K32" s="197" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="201"/>
-      <c r="M32" s="207">
+      <c r="L32" s="192"/>
+      <c r="M32" s="198">
         <f>(G8-L32+G9)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="206" t="e">
+      <c r="N32" s="197" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A33" s="136" t="s">
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="249">
+      <c r="B33" s="226">
         <f>H33+SUM(B34:C36)</f>
         <v>0</v>
       </c>
-      <c r="C33" s="250"/>
-      <c r="D33" s="255" t="e">
+      <c r="C33" s="227"/>
+      <c r="D33" s="228" t="e">
         <f>CONCATENATE(TEXT(E10-B33,"0,000"),"       ",TEXT((E10-B33)/B33,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="256" t="str">
+      <c r="E33" s="229" t="str">
         <f t="shared" si="1"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F33" s="139">
+      <c r="F33" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="38" t="e">
+      <c r="G33" s="34" t="e">
         <f>CONCATENATE(TEXT(E10-F33,"0,000"),"       ",TEXT((E10-F33)/F33,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="198"/>
-      <c r="I33" s="37" t="s">
+      <c r="H33" s="189"/>
+      <c r="I33" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="199">
+      <c r="J33" s="190">
         <f>(E10-H33)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="200" t="e">
+      <c r="K33" s="191" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="198"/>
-      <c r="M33" s="208">
+      <c r="L33" s="189"/>
+      <c r="M33" s="199">
         <f>(E10-L33)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="200" t="e">
+      <c r="N33" s="191" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A34" s="138" t="s">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="249"/>
-      <c r="C34" s="250"/>
-      <c r="D34" s="255" t="e">
+      <c r="B34" s="226"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="228" t="e">
         <f>CONCATENATE(TEXT(E6-B34,"0,000"),"       ",TEXT((E6-B34)/B34,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="256" t="str">
+      <c r="E34" s="229" t="str">
         <f t="shared" ref="E34" si="8">CONCATENATE("108年度現階段累積達成率",TEXT(J30,"0.00%"),"     ",TEXT(J26,"0.00"))</f>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F34" s="139"/>
-      <c r="G34" s="38" t="e">
+      <c r="F34" s="132"/>
+      <c r="G34" s="34" t="e">
         <f>CONCATENATE(TEXT(E6-F34,"0,000"),"       ",TEXT((E6-F34)/F34,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="209"/>
-      <c r="I34" s="35" t="s">
+      <c r="H34" s="200"/>
+      <c r="I34" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="202">
+      <c r="J34" s="193">
         <f>(E6-H34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="203" t="e">
+      <c r="K34" s="194" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="201"/>
-      <c r="M34" s="204">
+      <c r="L34" s="192"/>
+      <c r="M34" s="195">
         <f>(E6-L34)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="203" t="e">
+      <c r="N34" s="194" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A35" s="138" t="s">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="249"/>
-      <c r="C35" s="250"/>
-      <c r="D35" s="255" t="e">
+      <c r="B35" s="226"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="228" t="e">
         <f t="shared" ref="D35" si="9">CONCATENATE(TEXT(E7-B35,"0,000"),"       ",TEXT((E7-B35)/B35,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="256" t="str">
+      <c r="E35" s="229" t="str">
         <f t="shared" ref="E35:E37" si="10">CONCATENATE("108年度現階段累積達成率",TEXT(J31,"0.00%"),"     ",TEXT(J27,"0.00"))</f>
         <v>108年度現階段累積達成率0.00%     上月增減</v>
       </c>
-      <c r="F35" s="139"/>
-      <c r="G35" s="38" t="e">
+      <c r="F35" s="132"/>
+      <c r="G35" s="34" t="e">
         <f>CONCATENATE(TEXT(E7-F35,"0,000"),"       ",TEXT((E7-F35)/F35,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="209"/>
-      <c r="I35" s="35" t="s">
+      <c r="H35" s="200"/>
+      <c r="I35" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="210">
+      <c r="J35" s="201">
         <f>(E7-H35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="203" t="e">
+      <c r="K35" s="194" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="201"/>
-      <c r="M35" s="204">
+      <c r="L35" s="192"/>
+      <c r="M35" s="195">
         <f>(E7-L35)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="203" t="e">
+      <c r="N35" s="194" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A36" s="140" t="s">
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="249"/>
-      <c r="C36" s="250"/>
-      <c r="D36" s="255" t="e">
+      <c r="B36" s="226"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="228" t="e">
         <f>CONCATENATE(TEXT(E8-B36+E9,"0,000"),"       ",TEXT((E8-B36+E9)/B36,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="256" t="str">
+      <c r="E36" s="229" t="str">
         <f t="shared" si="10"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F36" s="139"/>
-      <c r="G36" s="38" t="e">
+      <c r="F36" s="132"/>
+      <c r="G36" s="34" t="e">
         <f>CONCATENATE(TEXT(E8-F36,"0,000"),"       ",TEXT((E8-F36)/F36,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="209"/>
-      <c r="I36" s="34" t="s">
+      <c r="H36" s="200"/>
+      <c r="I36" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="205">
+      <c r="J36" s="196">
         <f>(E8-H36+E9)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="203" t="e">
+      <c r="K36" s="194" t="e">
         <f>J36/B36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="211"/>
-      <c r="M36" s="207">
+      <c r="L36" s="202"/>
+      <c r="M36" s="198">
         <f>(E8-L36)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="206" t="e">
+      <c r="N36" s="197" t="e">
         <f>M36/F36</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A37" s="141" t="s">
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="249"/>
-      <c r="C37" s="250"/>
-      <c r="D37" s="255" t="e">
+      <c r="B37" s="226"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="228" t="e">
         <f>CONCATENATE(TEXT(C10-B37,"0,000"),"       ",TEXT((C10-B37)/B37,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="256" t="str">
+      <c r="E37" s="229" t="str">
         <f t="shared" si="10"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="38" t="e">
+      <c r="F37" s="132"/>
+      <c r="G37" s="34" t="e">
         <f>CONCATENATE(TEXT(C10-F37,"0,000"),"       ",TEXT((C10-F37)/F37,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="209"/>
-      <c r="I37" s="31" t="s">
+      <c r="H37" s="200"/>
+      <c r="I37" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="212">
+      <c r="J37" s="203">
         <f>(C10-H37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="213" t="e">
+      <c r="K37" s="204" t="e">
         <f>J37/B37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="214"/>
-      <c r="M37" s="212">
+      <c r="L37" s="205"/>
+      <c r="M37" s="203">
         <f>(C10-L37)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="213" t="e">
+      <c r="N37" s="204" t="e">
         <f>M37/F37</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A38" s="142" t="s">
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="297" t="e">
+      <c r="B38" s="235" t="e">
         <f>F38=(B37+B33)/B29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C38" s="298"/>
-      <c r="D38" s="291" t="e">
+      <c r="C38" s="236"/>
+      <c r="D38" s="253" t="e">
         <f>F15-B38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="292"/>
-      <c r="F38" s="143" t="e">
+      <c r="E38" s="254"/>
+      <c r="F38" s="136" t="e">
         <f>(F37+F33)/F29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="219" t="e">
+      <c r="G38" s="209" t="e">
         <f>F15-F38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="215" t="e">
+      <c r="H38" s="206" t="e">
         <f>(H33+H37)/H29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="216" t="e">
+      <c r="J38" s="207" t="e">
         <f>F15-H38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="212"/>
-      <c r="L38" s="215" t="e">
+      <c r="K38" s="203"/>
+      <c r="L38" s="206" t="e">
         <f>(L33+L37)/L29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="216" t="e">
+      <c r="M38" s="207" t="e">
         <f>F15-L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="217"/>
-    </row>
-    <row r="39" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A39" s="132" t="s">
+      <c r="N38" s="208"/>
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="118" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="218"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="218"/>
-      <c r="L39" s="218"/>
-      <c r="M39" s="218"/>
-      <c r="N39" s="218"/>
-    </row>
-    <row r="40" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A40" s="145" t="s">
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="287" t="s">
+      <c r="B40" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="288"/>
-      <c r="D40" s="287" t="s">
+      <c r="C40" s="242"/>
+      <c r="D40" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="288"/>
-      <c r="F40" s="152" t="s">
+      <c r="E40" s="242"/>
+      <c r="F40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="119" t="s">
+      <c r="G40" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="157"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="218"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="218"/>
-      <c r="N40" s="218"/>
-    </row>
-    <row r="41" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="285"/>
-      <c r="C41" s="286"/>
-      <c r="D41" s="295"/>
-      <c r="E41" s="296"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="285"/>
-      <c r="C42" s="286"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="296"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="285"/>
-      <c r="C43" s="286"/>
-      <c r="D43" s="295"/>
-      <c r="E43" s="296"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="285"/>
-      <c r="C44" s="286"/>
-      <c r="D44" s="295"/>
-      <c r="E44" s="296"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="285"/>
-      <c r="C45" s="286"/>
-      <c r="D45" s="295"/>
-      <c r="E45" s="296"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="285"/>
-      <c r="C46" s="286"/>
-      <c r="D46" s="295"/>
-      <c r="E46" s="296"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="285"/>
-      <c r="C47" s="286"/>
-      <c r="D47" s="285"/>
-      <c r="E47" s="286"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="285"/>
-      <c r="C48" s="286"/>
-      <c r="D48" s="285"/>
-      <c r="E48" s="286"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="285"/>
-      <c r="C49" s="286"/>
-      <c r="D49" s="285"/>
-      <c r="E49" s="286"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="285"/>
-      <c r="C50" s="286"/>
-      <c r="D50" s="285"/>
-      <c r="E50" s="286"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="285"/>
-      <c r="C51" s="286"/>
-      <c r="D51" s="285"/>
-      <c r="E51" s="286"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="17"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="210"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="210"/>
+      <c r="C42" s="211"/>
+      <c r="D42" s="212"/>
+      <c r="E42" s="213"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="16"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="213"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="16"/>
+      <c r="B44" s="210"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="212"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="16"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="211"/>
+      <c r="D46" s="212"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="16"/>
+      <c r="B47" s="210"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="210"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="16"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="210"/>
+      <c r="C49" s="211"/>
+      <c r="D49" s="210"/>
+      <c r="E49" s="211"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="16"/>
+      <c r="B50" s="210"/>
+      <c r="C50" s="211"/>
+      <c r="D50" s="210"/>
+      <c r="E50" s="211"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A51" s="16"/>
+      <c r="B51" s="210"/>
+      <c r="C51" s="211"/>
+      <c r="D51" s="210"/>
+      <c r="E51" s="211"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="293">
+      <c r="B52" s="231">
         <f>B51-B29</f>
         <v>0</v>
       </c>
-      <c r="C52" s="293"/>
-      <c r="D52" s="293">
+      <c r="C52" s="231"/>
+      <c r="D52" s="231">
         <f>D51-B33-B37</f>
         <v>0</v>
       </c>
-      <c r="E52" s="293"/>
-      <c r="F52" s="147" t="e">
+      <c r="E52" s="231"/>
+      <c r="F52" s="140" t="e">
         <f>F51-B38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="148"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-    </row>
-    <row r="53" spans="1:14" ht="18">
-      <c r="A53" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="290">
+      <c r="G52" s="141"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="17.399999999999999">
+      <c r="A53" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="240">
         <f>B51-B49</f>
         <v>0</v>
       </c>
-      <c r="C53" s="290"/>
-      <c r="D53" s="290">
+      <c r="C53" s="240"/>
+      <c r="D53" s="240">
         <f>D51-D49</f>
         <v>0</v>
       </c>
-      <c r="E53" s="290"/>
-      <c r="F53" s="150">
+      <c r="E53" s="240"/>
+      <c r="F53" s="143">
         <f>F51-F49</f>
         <v>0</v>
       </c>
-      <c r="G53" s="151"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A54" s="294"/>
-      <c r="B54" s="301"/>
-      <c r="C54" s="301"/>
-      <c r="D54" s="289"/>
-      <c r="E54" s="289"/>
-      <c r="F54" s="279"/>
-      <c r="G54" s="284"/>
-      <c r="H54" s="7"/>
+      <c r="A54" s="232"/>
+      <c r="B54" s="239"/>
+      <c r="C54" s="239"/>
+      <c r="D54" s="252"/>
+      <c r="E54" s="252"/>
+      <c r="F54" s="244"/>
+      <c r="G54" s="251"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:14" ht="27" customHeight="1">
-      <c r="A55" s="294"/>
-      <c r="B55" s="301"/>
-      <c r="C55" s="301"/>
-      <c r="D55" s="289"/>
-      <c r="E55" s="289"/>
-      <c r="F55" s="279"/>
-      <c r="G55" s="284"/>
-      <c r="I55" s="6"/>
+      <c r="A55" s="232"/>
+      <c r="B55" s="239"/>
+      <c r="C55" s="239"/>
+      <c r="D55" s="252"/>
+      <c r="E55" s="252"/>
+      <c r="F55" s="244"/>
+      <c r="G55" s="251"/>
     </row>
     <row r="56" spans="1:14" ht="27" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="278"/>
-      <c r="C56" s="278"/>
-      <c r="D56" s="278"/>
-      <c r="E56" s="278"/>
-      <c r="F56" s="278"/>
-      <c r="G56" s="278"/>
+      <c r="B56" s="243"/>
+      <c r="C56" s="243"/>
+      <c r="D56" s="243"/>
+      <c r="E56" s="243"/>
+      <c r="F56" s="243"/>
+      <c r="G56" s="243"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="5"/>
-      <c r="B57" s="278"/>
-      <c r="C57" s="278"/>
-      <c r="D57" s="278"/>
-      <c r="E57" s="278"/>
-      <c r="F57" s="278"/>
-      <c r="G57" s="278"/>
+      <c r="B57" s="243"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="243"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="5"/>
-      <c r="B58" s="278"/>
-      <c r="C58" s="278"/>
-      <c r="D58" s="278"/>
-      <c r="E58" s="278"/>
-      <c r="F58" s="278"/>
-      <c r="G58" s="278"/>
+      <c r="B58" s="243"/>
+      <c r="C58" s="243"/>
+      <c r="D58" s="243"/>
+      <c r="E58" s="243"/>
+      <c r="F58" s="243"/>
+      <c r="G58" s="243"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="5"/>
-      <c r="B59" s="278"/>
-      <c r="C59" s="278"/>
-      <c r="D59" s="278"/>
-      <c r="E59" s="278"/>
-      <c r="F59" s="278"/>
-      <c r="G59" s="278"/>
+      <c r="B59" s="243"/>
+      <c r="C59" s="243"/>
+      <c r="D59" s="243"/>
+      <c r="E59" s="243"/>
+      <c r="F59" s="243"/>
+      <c r="G59" s="243"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="5"/>
-      <c r="B60" s="278"/>
-      <c r="C60" s="278"/>
-      <c r="D60" s="278"/>
-      <c r="E60" s="278"/>
-      <c r="F60" s="278"/>
-      <c r="G60" s="278"/>
+      <c r="B60" s="243"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="243"/>
+      <c r="E60" s="243"/>
+      <c r="F60" s="243"/>
+      <c r="G60" s="243"/>
     </row>
     <row r="62" spans="1:14">
       <c r="J62" s="4"/>
@@ -7073,23 +7142,67 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B56:C60"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="D56:E60"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="A54:A55"/>
@@ -7114,72 +7227,28 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B56:C60"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="D56:E60"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B23:C25"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.31496062992125984" bottom="0" header="0.19685039370078741" footer="0"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R機密等級：密等</oddHeader>
     <oddFooter>&amp;L&amp;"標楷體,標準"&amp;10放款部 放款管理課製表 &amp;D</oddFooter>
@@ -7190,7 +7259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="44"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7201,1421 +7270,1415 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="26" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="2" customWidth="1"/>
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.6328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="257" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="73"/>
-      <c r="O1" s="73"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="69"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="227"/>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="73"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="O2" s="73"/>
+      <c r="A2" s="294"/>
+      <c r="B2" s="294"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="69"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="74"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" ht="54.75" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="258" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="259" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="243" t="s">
+      <c r="C4" s="260"/>
+      <c r="D4" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="244"/>
-      <c r="F4" s="245" t="s">
+      <c r="E4" s="262"/>
+      <c r="F4" s="263" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="228" t="s">
+      <c r="G4" s="295" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A5" s="240"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="223"/>
+      <c r="B5" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="246"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-    </row>
-    <row r="6" spans="1:15" ht="22" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="F5" s="264"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+    </row>
+    <row r="6" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A6" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64">
+      <c r="B6" s="114"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60">
         <f>C6+E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="161">
+      <c r="G6" s="67"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="301"/>
+      <c r="K6" s="301"/>
+      <c r="L6" s="152">
         <f>J6-G6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-    </row>
-    <row r="7" spans="1:15" ht="22" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+    </row>
+    <row r="7" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A7" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="64">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="60">
         <f t="shared" ref="F7:F10" si="0">C7+E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="162" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="302"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="161">
+      <c r="J7" s="301"/>
+      <c r="K7" s="301"/>
+      <c r="L7" s="152">
         <f>J7-G7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-    </row>
-    <row r="8" spans="1:15" ht="22" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+    </row>
+    <row r="8" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A8" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165">
+      <c r="G8" s="59"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="156">
         <f>H8-G8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="166">
+      <c r="J8" s="157">
         <f>[1]SKL_TOL!$H$882</f>
         <v>0</v>
       </c>
-      <c r="K8" s="167">
+      <c r="K8" s="158">
         <f>J8-E8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="168"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-    </row>
-    <row r="9" spans="1:15" ht="22" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="L8" s="159"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+    </row>
+    <row r="9" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A9" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="59">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="165">
+      <c r="H9" s="155"/>
+      <c r="I9" s="156">
         <f>H9-F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="169"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="55">
         <f>SUM(B6:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="55">
         <f>SUM(C6:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="55">
         <f>SUM(D6:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="55">
         <f>SUM(E6:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="54">
         <f>SUM(G6:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="170"/>
-      <c r="I10" s="165">
+      <c r="H10" s="161"/>
+      <c r="I10" s="156">
         <f>H10-G10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="225" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="230"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173">
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164">
         <f>H11-E10</f>
         <v>0</v>
       </c>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A12" s="265" t="s">
+      <c r="A12" s="274" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="231"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="275"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="293"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A13" s="267"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="263" t="s">
+      <c r="A13" s="276"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="280" t="s">
+      <c r="F13" s="247" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="281"/>
-      <c r="H13" s="174" t="e">
+      <c r="G13" s="248"/>
+      <c r="H13" s="165" t="e">
         <f>-B20/G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="175" t="s">
+      <c r="I13" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-    </row>
-    <row r="14" spans="1:15" ht="18">
-      <c r="A14" s="124" t="s">
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.399999999999999">
+      <c r="A14" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="311" t="s">
+      <c r="B14" s="302" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="312"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="264"/>
-      <c r="F14" s="282" t="s">
+      <c r="C14" s="303"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="249" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="283"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="157"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="148"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="233" t="s">
+      <c r="C15" s="299"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="303" t="e">
+      <c r="F15" s="214" t="e">
         <f>F10/G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="304"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="157"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="148"/>
     </row>
     <row r="16" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="259" t="e">
+      <c r="B16" s="268" t="e">
         <f>F10/B23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C16" s="260"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="306"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="148"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A17" s="234"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="126" t="s">
+      <c r="A17" s="256"/>
+      <c r="B17" s="270"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="257" t="e">
+      <c r="F17" s="220" t="e">
         <f>$I$17/$H$17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="258"/>
-      <c r="H17" s="178">
+      <c r="G17" s="221"/>
+      <c r="H17" s="169">
         <f>G10-H18</f>
         <v>0</v>
       </c>
-      <c r="I17" s="179">
+      <c r="I17" s="170">
         <f>F10-F7</f>
         <v>0</v>
       </c>
-      <c r="J17" s="180" t="s">
+      <c r="J17" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A18" s="273" t="s">
+      <c r="A18" s="282" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="274" t="e">
+      <c r="B18" s="283" t="e">
         <f>-B20/F10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C18" s="275"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="127" t="s">
+      <c r="C18" s="284"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="307" t="e">
+      <c r="F18" s="218" t="e">
         <f>I18/H18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="308"/>
-      <c r="H18" s="178">
+      <c r="G18" s="219"/>
+      <c r="H18" s="169">
         <f>G7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="181">
+      <c r="I18" s="172">
         <f>F7</f>
         <v>0</v>
       </c>
-      <c r="J18" s="182">
+      <c r="J18" s="173">
         <f>SUM(H17:H18)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A19" s="273"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="128" t="s">
+      <c r="A19" s="282"/>
+      <c r="B19" s="283"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="257" t="e">
+      <c r="F19" s="220" t="e">
         <f>I19/H19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="258"/>
-      <c r="H19" s="178">
+      <c r="G19" s="221"/>
+      <c r="H19" s="169">
         <f>G10-H20</f>
         <v>0</v>
       </c>
-      <c r="I19" s="181">
+      <c r="I19" s="172">
         <f>F10-F7</f>
         <v>0</v>
       </c>
-      <c r="J19" s="182"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A20" s="272" t="s">
+      <c r="A20" s="281" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="269"/>
-      <c r="C20" s="270"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="129" t="s">
+      <c r="B20" s="278"/>
+      <c r="C20" s="279"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="307" t="e">
+      <c r="F20" s="218" t="e">
         <f>I20/H20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="308"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="181">
+      <c r="G20" s="219"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="172">
         <f>F7</f>
         <v>0</v>
       </c>
-      <c r="J20" s="182">
+      <c r="J20" s="173">
         <f>SUM(H19:H20)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A21" s="272"/>
-      <c r="B21" s="269"/>
-      <c r="C21" s="270"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
+      <c r="A21" s="281"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="279"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A22" s="272"/>
-      <c r="B22" s="269"/>
-      <c r="C22" s="270"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="247" t="s">
+      <c r="A22" s="281"/>
+      <c r="B22" s="278"/>
+      <c r="C22" s="279"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="247" t="s">
+      <c r="F22" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="247" t="s">
+      <c r="G22" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="178"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="148"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A23" s="271" t="s">
+      <c r="A23" s="280" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="276">
+      <c r="B23" s="285">
         <f>G10+H26</f>
         <v>0</v>
       </c>
-      <c r="C23" s="277"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A24" s="271"/>
-      <c r="B24" s="276"/>
-      <c r="C24" s="277"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="130" t="s">
+      <c r="C23" s="286"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="280"/>
+      <c r="B24" s="285"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-    </row>
-    <row r="25" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A25" s="271"/>
-      <c r="B25" s="276"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="131" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="148"/>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="280"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="286"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="186">
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="177">
         <f>H25-B23</f>
         <v>0</v>
       </c>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
     </row>
     <row r="26" spans="1:14" ht="27" customHeight="1">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="313"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="118" t="s">
+      <c r="B26" s="230"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="187" t="s">
+      <c r="H26" s="36"/>
+      <c r="I26" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="123"/>
-    </row>
-    <row r="27" spans="1:14" ht="19.149999999999999" customHeight="1">
-      <c r="A27" s="247" t="s">
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="116"/>
+    </row>
+    <row r="27" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A27" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="251"/>
-      <c r="C27" s="252"/>
-      <c r="D27" s="299" t="s">
+      <c r="B27" s="233"/>
+      <c r="C27" s="266"/>
+      <c r="D27" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="300"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="134" t="s">
+      <c r="E27" s="238"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="189"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="223" t="s">
+      <c r="H27" s="180"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="224"/>
-      <c r="L27" s="220" t="s">
+      <c r="K27" s="291"/>
+      <c r="L27" s="287" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="221"/>
-      <c r="N27" s="222"/>
-    </row>
-    <row r="28" spans="1:14" ht="19.149999999999999" customHeight="1">
-      <c r="A28" s="248"/>
-      <c r="B28" s="253"/>
-      <c r="C28" s="254"/>
-      <c r="D28" s="309" t="s">
+      <c r="M27" s="288"/>
+      <c r="N27" s="289"/>
+    </row>
+    <row r="28" spans="1:14" ht="19.2" customHeight="1">
+      <c r="A28" s="265"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="267"/>
+      <c r="D28" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="310"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="135" t="s">
+      <c r="E28" s="225"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="191"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="195"/>
-      <c r="M28" s="196"/>
-      <c r="N28" s="197"/>
-    </row>
-    <row r="29" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A29" s="136" t="s">
+      <c r="H28" s="182"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="188"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="249">
+      <c r="B29" s="226">
         <f t="shared" ref="B29:B38" si="1">H29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="250"/>
-      <c r="D29" s="255" t="e">
+      <c r="C29" s="227"/>
+      <c r="D29" s="228" t="e">
         <f>CONCATENATE(TEXT(J29,"0,000"),"       ",TEXT(K29,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="256" t="str">
+      <c r="E29" s="229" t="str">
         <f t="shared" ref="E29:E37" si="2">CONCATENATE("108年度現階段累積達成率",TEXT(J25,"0.00%"),"     ",TEXT(J21,"0.00"))</f>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F29" s="137">
+      <c r="F29" s="130">
         <f t="shared" ref="F29:F38" si="3">L29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="38" t="e">
+      <c r="G29" s="34" t="e">
         <f>CONCATENATE(TEXT(M29,"0,000"),"        ",TEXT(N29,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="198"/>
-      <c r="I29" s="37" t="s">
+      <c r="H29" s="189"/>
+      <c r="I29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="199">
+      <c r="J29" s="190">
         <f>(G10-H29)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="200" t="e">
+      <c r="K29" s="191" t="e">
         <f t="shared" ref="K29:K35" si="4">J29/B29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="198"/>
-      <c r="M29" s="199">
+      <c r="L29" s="189"/>
+      <c r="M29" s="190">
         <f>(G10-L29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="200" t="e">
+      <c r="N29" s="191" t="e">
         <f t="shared" ref="N29:N35" si="5">M29/F29</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A30" s="138" t="s">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="249">
+      <c r="B30" s="226">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="250"/>
-      <c r="D30" s="255" t="e">
+      <c r="C30" s="227"/>
+      <c r="D30" s="228" t="e">
         <f>CONCATENATE(TEXT(J30,"0,000"),"       ",TEXT(K30,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="256" t="str">
+      <c r="E30" s="229" t="str">
         <f t="shared" si="2"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F30" s="139">
+      <c r="F30" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="32" t="e">
+      <c r="G30" s="28" t="e">
         <f>CONCATENATE(TEXT(M30,"0,000"),"       ",TEXT(N30,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="201"/>
-      <c r="I30" s="35" t="s">
+      <c r="H30" s="192"/>
+      <c r="I30" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="202">
+      <c r="J30" s="193">
         <f>(G6-H30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="203" t="e">
+      <c r="K30" s="194" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="201"/>
-      <c r="M30" s="204">
+      <c r="L30" s="192"/>
+      <c r="M30" s="195">
         <f>(G6-L30)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="203" t="e">
+      <c r="N30" s="194" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A31" s="138" t="s">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="249">
+      <c r="B31" s="226">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="250"/>
-      <c r="D31" s="255" t="e">
+      <c r="C31" s="227"/>
+      <c r="D31" s="228" t="e">
         <f>CONCATENATE(TEXT(J31,"0,000"),"       ",TEXT(K31,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="256" t="str">
+      <c r="E31" s="229" t="str">
         <f t="shared" si="2"/>
         <v>108年度現階段累積達成率上月增減     0.00</v>
       </c>
-      <c r="F31" s="139">
+      <c r="F31" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="32" t="e">
+      <c r="G31" s="28" t="e">
         <f>CONCATENATE(TEXT(M31,"0,000"),"      ",TEXT(N31,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="201"/>
-      <c r="I31" s="35" t="s">
+      <c r="H31" s="192"/>
+      <c r="I31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="202">
+      <c r="J31" s="193">
         <f>(G7-H31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="203" t="e">
+      <c r="K31" s="194" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="201"/>
-      <c r="M31" s="204">
+      <c r="L31" s="192"/>
+      <c r="M31" s="195">
         <f>(G7-L31)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="203" t="e">
+      <c r="N31" s="194" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A32" s="140" t="s">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="249">
+      <c r="B32" s="226">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="250"/>
-      <c r="D32" s="255" t="e">
+      <c r="C32" s="227"/>
+      <c r="D32" s="228" t="e">
         <f>CONCATENATE(TEXT(J32,"000"),"        ",TEXT(K32,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="256" t="str">
+      <c r="E32" s="229" t="str">
         <f t="shared" si="2"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F32" s="139">
+      <c r="F32" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="32" t="e">
+      <c r="G32" s="28" t="e">
         <f>CONCATENATE(TEXT(M32,"0,000"),"     ",TEXT(N32,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="201"/>
-      <c r="I32" s="34" t="s">
+      <c r="H32" s="192"/>
+      <c r="I32" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="205">
+      <c r="J32" s="196">
         <f>(G8-H32+G9)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="206" t="e">
+      <c r="K32" s="197" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="201"/>
-      <c r="M32" s="207">
+      <c r="L32" s="192"/>
+      <c r="M32" s="198">
         <f>(G8-L32+G9)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="206" t="e">
+      <c r="N32" s="197" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A33" s="136" t="s">
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="249">
+      <c r="B33" s="226">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C33" s="250"/>
-      <c r="D33" s="255" t="e">
+      <c r="C33" s="227"/>
+      <c r="D33" s="228" t="e">
         <f>CONCATENATE(TEXT(J33,"0,000"),"       ",TEXT(K33,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="256" t="str">
+      <c r="E33" s="229" t="str">
         <f t="shared" si="2"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F33" s="139">
+      <c r="F33" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="32" t="e">
+      <c r="G33" s="28" t="e">
         <f>CONCATENATE(TEXT(M33,"0,000"),"     ",TEXT(N33,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="198"/>
-      <c r="I33" s="37" t="s">
+      <c r="H33" s="189"/>
+      <c r="I33" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="199">
+      <c r="J33" s="190">
         <f>(E10-H33)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="200" t="e">
+      <c r="K33" s="191" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="198"/>
-      <c r="M33" s="208">
+      <c r="L33" s="189"/>
+      <c r="M33" s="199">
         <f>(E10-L33)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="200" t="e">
+      <c r="N33" s="191" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A34" s="138" t="s">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="249">
+      <c r="B34" s="226">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C34" s="250"/>
-      <c r="D34" s="255" t="e">
+      <c r="C34" s="227"/>
+      <c r="D34" s="228" t="e">
         <f>CONCATENATE(TEXT(J34,"0,000"),"       ",TEXT(K34,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="256" t="str">
+      <c r="E34" s="229" t="str">
         <f t="shared" si="2"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F34" s="139">
+      <c r="F34" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="32" t="e">
+      <c r="G34" s="28" t="e">
         <f>CONCATENATE(TEXT(M34,"0,000"),"     ",TEXT(N34,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="209"/>
-      <c r="I34" s="35" t="s">
+      <c r="H34" s="200"/>
+      <c r="I34" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="202">
+      <c r="J34" s="193">
         <f>(E6-H34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="203" t="e">
+      <c r="K34" s="194" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="201"/>
-      <c r="M34" s="204">
+      <c r="L34" s="192"/>
+      <c r="M34" s="195">
         <f>(E6-L34)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="203" t="e">
+      <c r="N34" s="194" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A35" s="138" t="s">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="249">
+      <c r="B35" s="226">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C35" s="250"/>
-      <c r="D35" s="255" t="e">
+      <c r="C35" s="227"/>
+      <c r="D35" s="228" t="e">
         <f>CONCATENATE(TEXT(J35,"0"),"        ",TEXT(K35,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="256" t="str">
+      <c r="E35" s="229" t="str">
         <f t="shared" si="2"/>
         <v>108年度現階段累積達成率0.00%     上月增減</v>
       </c>
-      <c r="F35" s="139">
+      <c r="F35" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G35" s="32" t="e">
+      <c r="G35" s="28" t="e">
         <f>CONCATENATE(TEXT(M35,"0"),"        ",TEXT(N35,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="209"/>
-      <c r="I35" s="35" t="s">
+      <c r="H35" s="200"/>
+      <c r="I35" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="210">
+      <c r="J35" s="201">
         <f>(E7-H35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="203" t="e">
+      <c r="K35" s="194" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="201"/>
-      <c r="M35" s="204">
+      <c r="L35" s="192"/>
+      <c r="M35" s="195">
         <f>(E7-L35)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="203" t="e">
+      <c r="N35" s="194" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A36" s="140" t="s">
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="249">
+      <c r="B36" s="226">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C36" s="250"/>
-      <c r="D36" s="255" t="e">
+      <c r="C36" s="227"/>
+      <c r="D36" s="228" t="e">
         <f>CONCATENATE(TEXT(J36,"0"),"        ",TEXT(K36,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="256" t="str">
+      <c r="E36" s="229" t="str">
         <f t="shared" si="2"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F36" s="139">
+      <c r="F36" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="32" t="e">
+      <c r="G36" s="28" t="e">
         <f>CONCATENATE(TEXT(M36,"0"),"     ",TEXT(N36,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="209"/>
-      <c r="I36" s="34" t="s">
+      <c r="H36" s="200"/>
+      <c r="I36" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="205">
+      <c r="J36" s="196">
         <f>(E8-H36+E9)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="203" t="e">
+      <c r="K36" s="194" t="e">
         <f>J36/B36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="211"/>
-      <c r="M36" s="207">
+      <c r="L36" s="202"/>
+      <c r="M36" s="198">
         <f>(E8-L36)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="206" t="e">
+      <c r="N36" s="197" t="e">
         <f>M36/F36</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A37" s="141" t="s">
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="249">
+      <c r="B37" s="226">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C37" s="250"/>
-      <c r="D37" s="255" t="e">
+      <c r="C37" s="227"/>
+      <c r="D37" s="228" t="e">
         <f>CONCATENATE(TEXT(J37,"0"),"    ",TEXT(K37,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="256" t="str">
+      <c r="E37" s="229" t="str">
         <f t="shared" si="2"/>
         <v>108年度現階段累積達成率0.00%     0.00</v>
       </c>
-      <c r="F37" s="139">
+      <c r="F37" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="32" t="e">
+      <c r="G37" s="28" t="e">
         <f>CONCATENATE(TEXT(M37,"0,000"),"    ",TEXT(N37,"0.00%"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="209"/>
-      <c r="I37" s="31" t="s">
+      <c r="H37" s="200"/>
+      <c r="I37" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="212">
+      <c r="J37" s="203">
         <f>(C10-H37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="213" t="e">
+      <c r="K37" s="204" t="e">
         <f>J37/B37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="214"/>
-      <c r="M37" s="212">
+      <c r="L37" s="205"/>
+      <c r="M37" s="203">
         <f>(C10-L37)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="213" t="e">
+      <c r="N37" s="204" t="e">
         <f>M37/F37</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A38" s="142" t="s">
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="297" t="e">
+      <c r="B38" s="235" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C38" s="298"/>
-      <c r="D38" s="314" t="e">
+      <c r="C38" s="236"/>
+      <c r="D38" s="304" t="e">
         <f>J38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="292"/>
-      <c r="F38" s="143" t="e">
+      <c r="E38" s="254"/>
+      <c r="F38" s="136" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="29" t="e">
+      <c r="G38" s="25" t="e">
         <f>M38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="215" t="e">
+      <c r="H38" s="206" t="e">
         <f>(H33+H37)/H29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="216" t="e">
+      <c r="J38" s="207" t="e">
         <f>F15-H38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="212"/>
-      <c r="L38" s="215" t="e">
+      <c r="K38" s="203"/>
+      <c r="L38" s="206" t="e">
         <f>(L33+L37)/L29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="216" t="e">
+      <c r="M38" s="207" t="e">
         <f>F15-L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="217"/>
-    </row>
-    <row r="39" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A39" s="132" t="s">
+      <c r="N38" s="208"/>
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="118" t="s">
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="218"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="218"/>
-      <c r="L39" s="218"/>
-      <c r="M39" s="218"/>
-      <c r="N39" s="218"/>
-    </row>
-    <row r="40" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A40" s="145" t="s">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="287" t="s">
+      <c r="B40" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="288"/>
-      <c r="D40" s="287" t="s">
+      <c r="C40" s="242"/>
+      <c r="D40" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="288"/>
-      <c r="F40" s="155" t="s">
+      <c r="E40" s="242"/>
+      <c r="F40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="119" t="s">
+      <c r="G40" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="157"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="218"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="218"/>
-      <c r="N40" s="218"/>
-    </row>
-    <row r="41" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="285"/>
-      <c r="C41" s="286"/>
-      <c r="D41" s="295"/>
-      <c r="E41" s="296"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="285"/>
-      <c r="C42" s="286"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="296"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="285"/>
-      <c r="C43" s="286"/>
-      <c r="D43" s="295"/>
-      <c r="E43" s="296"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="285"/>
-      <c r="C44" s="286"/>
-      <c r="D44" s="295"/>
-      <c r="E44" s="296"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="285"/>
-      <c r="C45" s="286"/>
-      <c r="D45" s="295"/>
-      <c r="E45" s="296"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="285"/>
-      <c r="C46" s="286"/>
-      <c r="D46" s="295"/>
-      <c r="E46" s="296"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="285"/>
-      <c r="C47" s="286"/>
-      <c r="D47" s="285"/>
-      <c r="E47" s="286"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="285"/>
-      <c r="C48" s="286"/>
-      <c r="D48" s="285"/>
-      <c r="E48" s="286"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="285"/>
-      <c r="C49" s="286"/>
-      <c r="D49" s="285"/>
-      <c r="E49" s="286"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="285"/>
-      <c r="C50" s="286"/>
-      <c r="D50" s="285"/>
-      <c r="E50" s="286"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="285"/>
-      <c r="C51" s="286"/>
-      <c r="D51" s="285"/>
-      <c r="E51" s="286"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="17"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="210"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="210"/>
+      <c r="C42" s="211"/>
+      <c r="D42" s="212"/>
+      <c r="E42" s="213"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="16"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="213"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="16"/>
+      <c r="B44" s="210"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="212"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="16"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="211"/>
+      <c r="D46" s="212"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="16"/>
+      <c r="B47" s="210"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="210"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="16"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="210"/>
+      <c r="C49" s="211"/>
+      <c r="D49" s="210"/>
+      <c r="E49" s="211"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="16"/>
+      <c r="B50" s="210"/>
+      <c r="C50" s="211"/>
+      <c r="D50" s="210"/>
+      <c r="E50" s="211"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A51" s="16"/>
+      <c r="B51" s="210"/>
+      <c r="C51" s="211"/>
+      <c r="D51" s="210"/>
+      <c r="E51" s="211"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="293">
+      <c r="B52" s="231">
         <f>B51-B29</f>
         <v>0</v>
       </c>
-      <c r="C52" s="293"/>
-      <c r="D52" s="293">
+      <c r="C52" s="231"/>
+      <c r="D52" s="231">
         <f>D51-B33-B37</f>
         <v>0</v>
       </c>
-      <c r="E52" s="293"/>
-      <c r="F52" s="147" t="e">
+      <c r="E52" s="231"/>
+      <c r="F52" s="140" t="e">
         <f>F51-B38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="148"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-    </row>
-    <row r="53" spans="1:14" ht="18">
-      <c r="A53" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="290">
+      <c r="G52" s="141"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="17.399999999999999">
+      <c r="A53" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="240">
         <f>B51-B49</f>
         <v>0</v>
       </c>
-      <c r="C53" s="290"/>
-      <c r="D53" s="290">
+      <c r="C53" s="240"/>
+      <c r="D53" s="240">
         <f>D51-D49</f>
         <v>0</v>
       </c>
-      <c r="E53" s="290"/>
-      <c r="F53" s="150">
+      <c r="E53" s="240"/>
+      <c r="F53" s="143">
         <f>F51-F49</f>
         <v>0</v>
       </c>
-      <c r="G53" s="151"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A54" s="294"/>
-      <c r="B54" s="301"/>
-      <c r="C54" s="301"/>
-      <c r="D54" s="289"/>
-      <c r="E54" s="289"/>
-      <c r="F54" s="279"/>
-      <c r="G54" s="284"/>
-      <c r="H54" s="7"/>
+      <c r="A54" s="232"/>
+      <c r="B54" s="239"/>
+      <c r="C54" s="239"/>
+      <c r="D54" s="252"/>
+      <c r="E54" s="252"/>
+      <c r="F54" s="244"/>
+      <c r="G54" s="251"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:14" ht="27" customHeight="1">
-      <c r="A55" s="294"/>
-      <c r="B55" s="301"/>
-      <c r="C55" s="301"/>
-      <c r="D55" s="289"/>
-      <c r="E55" s="289"/>
-      <c r="F55" s="279"/>
-      <c r="G55" s="284"/>
-      <c r="I55" s="6"/>
+      <c r="A55" s="232"/>
+      <c r="B55" s="239"/>
+      <c r="C55" s="239"/>
+      <c r="D55" s="252"/>
+      <c r="E55" s="252"/>
+      <c r="F55" s="244"/>
+      <c r="G55" s="251"/>
     </row>
     <row r="56" spans="1:14" ht="27" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="278"/>
-      <c r="C56" s="278"/>
-      <c r="D56" s="278"/>
-      <c r="E56" s="278"/>
-      <c r="F56" s="278"/>
-      <c r="G56" s="278"/>
+      <c r="B56" s="243"/>
+      <c r="C56" s="243"/>
+      <c r="D56" s="243"/>
+      <c r="E56" s="243"/>
+      <c r="F56" s="243"/>
+      <c r="G56" s="243"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="5"/>
-      <c r="B57" s="278"/>
-      <c r="C57" s="278"/>
-      <c r="D57" s="278"/>
-      <c r="E57" s="278"/>
-      <c r="F57" s="278"/>
-      <c r="G57" s="278"/>
+      <c r="B57" s="243"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="243"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="5"/>
-      <c r="B58" s="278"/>
-      <c r="C58" s="278"/>
-      <c r="D58" s="278"/>
-      <c r="E58" s="278"/>
-      <c r="F58" s="278"/>
-      <c r="G58" s="278"/>
+      <c r="B58" s="243"/>
+      <c r="C58" s="243"/>
+      <c r="D58" s="243"/>
+      <c r="E58" s="243"/>
+      <c r="F58" s="243"/>
+      <c r="G58" s="243"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="5"/>
-      <c r="B59" s="278"/>
-      <c r="C59" s="278"/>
-      <c r="D59" s="278"/>
-      <c r="E59" s="278"/>
-      <c r="F59" s="278"/>
-      <c r="G59" s="278"/>
+      <c r="B59" s="243"/>
+      <c r="C59" s="243"/>
+      <c r="D59" s="243"/>
+      <c r="E59" s="243"/>
+      <c r="F59" s="243"/>
+      <c r="G59" s="243"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="5"/>
-      <c r="B60" s="278"/>
-      <c r="C60" s="278"/>
-      <c r="D60" s="278"/>
-      <c r="E60" s="278"/>
-      <c r="F60" s="278"/>
-      <c r="G60" s="278"/>
+      <c r="B60" s="243"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="243"/>
+      <c r="E60" s="243"/>
+      <c r="F60" s="243"/>
+      <c r="G60" s="243"/>
     </row>
     <row r="62" spans="1:14">
       <c r="J62" s="4"/>
@@ -8629,6 +8692,89 @@
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:C60"/>
+    <mergeCell ref="D56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="D11:D12"/>
@@ -8648,94 +8794,11 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B56:C60"/>
-    <mergeCell ref="D56:E60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.31496062992125984" bottom="0" header="0.19685039370078741" footer="0"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R機密等級：密等</oddHeader>
     <oddFooter>&amp;L&amp;"標楷體,標準"&amp;10放款部 放款管理課製表 &amp;D</oddFooter>
@@ -8746,7 +8809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor indexed="44"/>
   </sheetPr>
@@ -8756,1285 +8819,1272 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="24" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="29" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="389" t="s">
+      <c r="A1" s="310" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="389"/>
-      <c r="H1" s="73"/>
-      <c r="O1" s="73"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="69"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="390">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="251">
         <f>X月!A2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="390"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79" t="s">
+      <c r="E2" s="251"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="O2" s="73"/>
+      <c r="H2" s="69"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="80" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="H3" s="70"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" ht="51" customHeight="1">
-      <c r="A4" s="358" t="s">
+      <c r="A4" s="311" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="391" t="s">
+      <c r="B4" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="392"/>
-      <c r="D4" s="393" t="s">
+      <c r="C4" s="314"/>
+      <c r="D4" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="394"/>
-      <c r="F4" s="395" t="s">
+      <c r="E4" s="316"/>
+      <c r="F4" s="317" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="397" t="s">
+      <c r="G4" s="319" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A5" s="359"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="312"/>
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="396"/>
-      <c r="G5" s="398"/>
-    </row>
-    <row r="6" spans="1:15" ht="22" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="F5" s="318"/>
+      <c r="G5" s="320"/>
+    </row>
+    <row r="6" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A6" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="68">
         <f>X月!B6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="61">
         <f>X月!C6/1000</f>
         <v>0</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="60">
         <f>X月!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="60">
         <f>X月!E6/1000</f>
         <v>0</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="61">
         <f>C6+E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="67">
         <f>X月!G6/1000</f>
         <v>0</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="J6" s="384"/>
-      <c r="K6" s="384"/>
-      <c r="L6" s="81"/>
-    </row>
-    <row r="7" spans="1:15" ht="22" customHeight="1">
-      <c r="A7" s="66" t="s">
+      <c r="H6" s="66"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="77"/>
+    </row>
+    <row r="7" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A7" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="78">
         <f>X月!B7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="65">
         <f>X月!C7/1000</f>
         <v>0</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="64">
         <f>X月!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="64">
         <f>X月!E7/1000</f>
         <v>0</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="64">
         <f>C7+E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="59">
         <f>X月!G7/1000</f>
         <v>0</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="384"/>
-      <c r="K7" s="384"/>
-      <c r="L7" s="81"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64">
+      <c r="B8" s="81"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60">
         <f>X月!E8/1000</f>
         <v>0</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="60">
         <f>C8+E8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="59">
         <f>X月!G8/1000</f>
         <v>0</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="61"/>
-    </row>
-    <row r="9" spans="1:15" ht="22" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="57"/>
+    </row>
+    <row r="9" spans="1:15" ht="22.05" customHeight="1">
+      <c r="A9" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64">
+      <c r="B9" s="81"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60">
         <f>X月!E9/1000</f>
         <v>0</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="60">
         <f>C9+E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="59">
         <f>X月!G9/1000</f>
         <v>0</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="86">
         <f t="shared" ref="B10:G10" si="0">SUM(B6:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="87">
         <f>SUM(C6:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="385"/>
-      <c r="E11" s="386" t="s">
+      <c r="D11" s="306"/>
+      <c r="E11" s="307" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="385"/>
-      <c r="G11" s="385"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="306"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A12" s="399" t="s">
+      <c r="A12" s="321" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="400"/>
-      <c r="C12" s="400"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="387"/>
-      <c r="F12" s="388"/>
-      <c r="G12" s="388"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="275"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="309"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A13" s="401"/>
-      <c r="B13" s="402"/>
-      <c r="C13" s="402"/>
-      <c r="E13" s="403" t="s">
+      <c r="A13" s="322"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="277"/>
+      <c r="E13" s="323" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="405" t="s">
+      <c r="F13" s="325" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="406"/>
+      <c r="G13" s="326"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-    </row>
-    <row r="14" spans="1:15" ht="18">
-      <c r="A14" s="57" t="s">
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.399999999999999">
+      <c r="A14" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="407" t="s">
+      <c r="B14" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="408"/>
-      <c r="E14" s="404"/>
-      <c r="F14" s="409" t="s">
+      <c r="C14" s="328"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="410"/>
+      <c r="G14" s="330"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="54"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="370" t="s">
+      <c r="B15" s="331" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="371"/>
-      <c r="E15" s="372" t="s">
+      <c r="C15" s="332"/>
+      <c r="E15" s="333" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="374" t="e">
+      <c r="F15" s="335" t="e">
         <f>$F$10/$G$10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="375"/>
+      <c r="G15" s="336"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="54"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="259" t="e">
+      <c r="B16" s="268" t="e">
         <f>F10/B23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C16" s="260"/>
-      <c r="E16" s="373"/>
-      <c r="F16" s="376"/>
-      <c r="G16" s="377"/>
+      <c r="C16" s="269"/>
+      <c r="E16" s="334"/>
+      <c r="F16" s="337"/>
+      <c r="G16" s="338"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="53"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="234"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="262"/>
-      <c r="E17" s="52" t="s">
+      <c r="A17" s="256"/>
+      <c r="B17" s="270"/>
+      <c r="C17" s="271"/>
+      <c r="E17" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="378" t="e">
+      <c r="F17" s="339" t="e">
         <f>X月!F17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="379"/>
+      <c r="G17" s="340"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="53"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="380" t="s">
+      <c r="A18" s="341" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="259" t="e">
+      <c r="B18" s="268" t="e">
         <f>-B20/F10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C18" s="260"/>
-      <c r="E18" s="51" t="s">
+      <c r="C18" s="269"/>
+      <c r="E18" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="356" t="e">
+      <c r="F18" s="345" t="e">
         <f>X月!F18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="357"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="44"/>
+      <c r="G18" s="346"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="381"/>
-      <c r="B19" s="382"/>
-      <c r="C19" s="383"/>
-      <c r="E19" s="50" t="s">
+      <c r="A19" s="342"/>
+      <c r="B19" s="343"/>
+      <c r="C19" s="344"/>
+      <c r="E19" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="378" t="e">
+      <c r="F19" s="339" t="e">
         <f>X月!F19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="379"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="44"/>
+      <c r="G19" s="340"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A20" s="239" t="s">
+      <c r="A20" s="258" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="352">
+      <c r="B20" s="348">
         <f>X月!B20/1000</f>
         <v>0</v>
       </c>
-      <c r="C20" s="353"/>
-      <c r="E20" s="49" t="s">
+      <c r="C20" s="349"/>
+      <c r="E20" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="356" t="e">
+      <c r="F20" s="345" t="e">
         <f>X月!F20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="357"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="44"/>
+      <c r="G20" s="346"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A21" s="351"/>
-      <c r="B21" s="354"/>
-      <c r="C21" s="355"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="44"/>
+      <c r="A21" s="347"/>
+      <c r="B21" s="350"/>
+      <c r="C21" s="351"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A22" s="351"/>
-      <c r="B22" s="354"/>
-      <c r="C22" s="355"/>
-      <c r="E22" s="358" t="s">
+      <c r="A22" s="347"/>
+      <c r="B22" s="350"/>
+      <c r="C22" s="351"/>
+      <c r="E22" s="311" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="358" t="s">
+      <c r="F22" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="358" t="s">
+      <c r="G22" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="44"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="40"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A23" s="360" t="s">
+      <c r="A23" s="352" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="363">
+      <c r="B23" s="355">
         <f>X月!B23/1000</f>
         <v>0</v>
       </c>
-      <c r="C23" s="364"/>
-      <c r="E23" s="359"/>
-      <c r="F23" s="359"/>
-      <c r="G23" s="359"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="44"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.149999999999999" customHeight="1">
-      <c r="A24" s="361"/>
-      <c r="B24" s="365"/>
-      <c r="C24" s="366"/>
-      <c r="E24" s="47" t="s">
+      <c r="C23" s="356"/>
+      <c r="E23" s="312"/>
+      <c r="F23" s="312"/>
+      <c r="G23" s="312"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="353"/>
+      <c r="B24" s="357"/>
+      <c r="C24" s="358"/>
+      <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="42">
         <f>X月!$F$24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="42">
         <f>X月!$G$24/1000</f>
         <v>0</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="44"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.149999999999999" customHeight="1">
-      <c r="A25" s="362"/>
-      <c r="B25" s="367"/>
-      <c r="C25" s="368"/>
-      <c r="E25" s="43" t="s">
+      <c r="H24" s="41"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="354"/>
+      <c r="B25" s="359"/>
+      <c r="C25" s="360"/>
+      <c r="E25" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="42">
         <f>X月!F25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="42">
         <f>X月!$G$25/1000</f>
         <v>0</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="44"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="40"/>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="369"/>
-      <c r="C26" s="369"/>
-      <c r="D26" s="41"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="44"/>
-    </row>
-    <row r="27" spans="1:9" ht="19.149999999999999" customHeight="1">
-      <c r="A27" s="341" t="s">
+      <c r="B26" s="361"/>
+      <c r="C26" s="361"/>
+      <c r="D26" s="37"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.2" customHeight="1">
+      <c r="A27" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="343">
+      <c r="B27" s="364">
         <f>X月!B27:C28</f>
         <v>0</v>
       </c>
-      <c r="C27" s="344"/>
-      <c r="D27" s="347" t="s">
+      <c r="C27" s="365"/>
+      <c r="D27" s="368" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="348"/>
-      <c r="F27" s="343">
+      <c r="E27" s="369"/>
+      <c r="F27" s="364">
         <f>X月!F27:F28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="44"/>
-    </row>
-    <row r="28" spans="1:9" ht="19.149999999999999" customHeight="1">
-      <c r="A28" s="342"/>
-      <c r="B28" s="345"/>
-      <c r="C28" s="346"/>
-      <c r="D28" s="349" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" ht="19.2" customHeight="1">
+      <c r="A28" s="363"/>
+      <c r="B28" s="366"/>
+      <c r="C28" s="367"/>
+      <c r="D28" s="370" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="350"/>
-      <c r="F28" s="345"/>
-      <c r="G28" s="96" t="s">
+      <c r="E28" s="371"/>
+      <c r="F28" s="366"/>
+      <c r="G28" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="97"/>
-      <c r="I28" s="44"/>
-    </row>
-    <row r="29" spans="1:9" ht="20.149999999999999" customHeight="1">
-      <c r="A29" s="98" t="s">
+      <c r="H28" s="93"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="333">
+      <c r="B29" s="372">
         <f>X月!B29</f>
         <v>0</v>
       </c>
-      <c r="C29" s="334"/>
-      <c r="D29" s="335" t="e">
+      <c r="C29" s="373"/>
+      <c r="D29" s="374" t="e">
         <f>X月!D29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="336"/>
-      <c r="F29" s="39">
+      <c r="E29" s="375"/>
+      <c r="F29" s="35">
         <f>X月!F29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="99" t="e">
+      <c r="G29" s="95" t="e">
         <f>X月!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="44"/>
-    </row>
-    <row r="30" spans="1:9" ht="20.149999999999999" customHeight="1">
-      <c r="A30" s="36" t="s">
+      <c r="H29" s="41"/>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="333">
+      <c r="B30" s="372">
         <f>X月!B30</f>
         <v>0</v>
       </c>
-      <c r="C30" s="334"/>
-      <c r="D30" s="335" t="e">
+      <c r="C30" s="373"/>
+      <c r="D30" s="374" t="e">
         <f>X月!D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="336"/>
-      <c r="F30" s="39">
+      <c r="E30" s="375"/>
+      <c r="F30" s="35">
         <f>X月!F30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="99" t="e">
+      <c r="G30" s="95" t="e">
         <f>X月!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="44"/>
-    </row>
-    <row r="31" spans="1:9" ht="20.149999999999999" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="H30" s="41"/>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="333">
+      <c r="B31" s="372">
         <f>X月!B31</f>
         <v>0</v>
       </c>
-      <c r="C31" s="334"/>
-      <c r="D31" s="335" t="e">
+      <c r="C31" s="373"/>
+      <c r="D31" s="374" t="e">
         <f>X月!D31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="336"/>
-      <c r="F31" s="39">
+      <c r="E31" s="375"/>
+      <c r="F31" s="35">
         <f>X月!F31</f>
         <v>0</v>
       </c>
-      <c r="G31" s="99" t="e">
+      <c r="G31" s="95" t="e">
         <f>X月!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="44"/>
-    </row>
-    <row r="32" spans="1:9" ht="20.149999999999999" customHeight="1">
-      <c r="A32" s="36" t="s">
+      <c r="H31" s="41"/>
+      <c r="I31" s="40"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="333">
+      <c r="B32" s="372">
         <f>X月!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="334"/>
-      <c r="D32" s="335" t="e">
+      <c r="C32" s="373"/>
+      <c r="D32" s="374" t="e">
         <f>X月!D32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="336"/>
-      <c r="F32" s="39">
+      <c r="E32" s="375"/>
+      <c r="F32" s="35">
         <f>X月!F32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="99" t="e">
+      <c r="G32" s="95" t="e">
         <f>X月!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="44"/>
-    </row>
-    <row r="33" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A33" s="98" t="s">
+      <c r="H32" s="41"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="333">
+      <c r="B33" s="372">
         <f>X月!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="334"/>
-      <c r="D33" s="335" t="e">
+      <c r="C33" s="373"/>
+      <c r="D33" s="374" t="e">
         <f>X月!D33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="336"/>
-      <c r="F33" s="39">
+      <c r="E33" s="375"/>
+      <c r="F33" s="35">
         <f>X月!F33</f>
         <v>0</v>
       </c>
-      <c r="G33" s="99" t="e">
+      <c r="G33" s="95" t="e">
         <f>X月!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="44"/>
-    </row>
-    <row r="34" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A34" s="36" t="s">
+      <c r="H33" s="41"/>
+      <c r="I33" s="40"/>
+    </row>
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="333">
+      <c r="B34" s="372">
         <f>X月!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="334"/>
-      <c r="D34" s="335" t="e">
+      <c r="C34" s="373"/>
+      <c r="D34" s="374" t="e">
         <f>X月!D34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="336"/>
-      <c r="F34" s="39">
+      <c r="E34" s="375"/>
+      <c r="F34" s="35">
         <f>X月!F34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="99" t="e">
+      <c r="G34" s="95" t="e">
         <f>X月!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="44"/>
-    </row>
-    <row r="35" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A35" s="36" t="s">
+      <c r="H34" s="41"/>
+      <c r="I34" s="40"/>
+    </row>
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="333">
+      <c r="B35" s="372">
         <f>X月!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335" t="e">
+      <c r="C35" s="373"/>
+      <c r="D35" s="374" t="e">
         <f>X月!D35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="336"/>
-      <c r="F35" s="39">
+      <c r="E35" s="375"/>
+      <c r="F35" s="35">
         <f>X月!F35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="99" t="e">
+      <c r="G35" s="95" t="e">
         <f>X月!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="44"/>
-    </row>
-    <row r="36" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A36" s="36" t="s">
+      <c r="H35" s="41"/>
+      <c r="I35" s="40"/>
+    </row>
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="333">
+      <c r="B36" s="372">
         <f>X月!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="334"/>
-      <c r="D36" s="335" t="e">
+      <c r="C36" s="373"/>
+      <c r="D36" s="374" t="e">
         <f>X月!D36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="336"/>
-      <c r="F36" s="39">
+      <c r="E36" s="375"/>
+      <c r="F36" s="35">
         <f>X月!F36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="99" t="e">
+      <c r="G36" s="95" t="e">
         <f>X月!G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A37" s="33" t="s">
+      <c r="H36" s="41"/>
+      <c r="I36" s="40"/>
+    </row>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="333">
+      <c r="B37" s="372">
         <f>X月!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="334"/>
-      <c r="D37" s="335" t="e">
+      <c r="C37" s="373"/>
+      <c r="D37" s="374" t="e">
         <f>X月!D37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="336"/>
-      <c r="F37" s="39">
+      <c r="E37" s="375"/>
+      <c r="F37" s="35">
         <f>X月!F37</f>
         <v>0</v>
       </c>
-      <c r="G37" s="99" t="e">
+      <c r="G37" s="95" t="e">
         <f>X月!G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="44"/>
-    </row>
-    <row r="38" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A38" s="30" t="s">
+      <c r="H37" s="41"/>
+      <c r="I37" s="40"/>
+    </row>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="337" t="e">
+      <c r="B38" s="376" t="e">
         <f>X月!B38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C38" s="338"/>
-      <c r="D38" s="339" t="e">
+      <c r="C38" s="377"/>
+      <c r="D38" s="378" t="e">
         <f>X月!D38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="340"/>
-      <c r="F38" s="100" t="e">
+      <c r="E38" s="379"/>
+      <c r="F38" s="96" t="e">
         <f>X月!F38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="101" t="e">
+      <c r="G38" s="97" t="e">
         <f>X月!G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="44"/>
-    </row>
-    <row r="39" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A39" s="102" t="s">
+      <c r="H38" s="41"/>
+      <c r="I38" s="40"/>
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="44"/>
-    </row>
-    <row r="40" spans="1:14" ht="20.149999999999999" customHeight="1">
-      <c r="A40" s="103" t="s">
+      <c r="F39" s="22"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="40"/>
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="330" t="s">
+      <c r="B40" s="380" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="331"/>
-      <c r="D40" s="330" t="s">
+      <c r="C40" s="381"/>
+      <c r="D40" s="380" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="332"/>
-      <c r="F40" s="104" t="s">
+      <c r="E40" s="382"/>
+      <c r="F40" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="105" t="s">
+      <c r="G40" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-    </row>
-    <row r="41" spans="1:14" ht="20.149999999999999" hidden="1" customHeight="1">
-      <c r="A41" s="19" t="s">
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+    </row>
+    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A41" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="326">
+      <c r="B41" s="383">
         <v>71052525</v>
       </c>
-      <c r="C41" s="327"/>
-      <c r="D41" s="328">
+      <c r="C41" s="384"/>
+      <c r="D41" s="385">
         <v>71052525</v>
       </c>
-      <c r="E41" s="329"/>
-      <c r="F41" s="23">
+      <c r="E41" s="386"/>
+      <c r="F41" s="19">
         <v>1.2206842754708576E-2</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="14">
         <v>40893</v>
       </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" ht="20.149999999999999" hidden="1" customHeight="1">
-      <c r="A42" s="19" t="s">
+    </row>
+    <row r="42" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A42" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="326">
+      <c r="B42" s="383">
         <v>72253004</v>
       </c>
-      <c r="C42" s="327"/>
-      <c r="D42" s="328">
+      <c r="C42" s="384"/>
+      <c r="D42" s="385">
         <v>72253004</v>
       </c>
-      <c r="E42" s="329"/>
-      <c r="F42" s="23">
+      <c r="E42" s="386"/>
+      <c r="F42" s="19">
         <v>1.2999680954441701E-2</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="14">
         <v>30167</v>
       </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" ht="20.149999999999999" hidden="1" customHeight="1">
-      <c r="A43" s="19" t="s">
+    </row>
+    <row r="43" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A43" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="326">
+      <c r="B43" s="383">
         <v>67530696.309</v>
       </c>
-      <c r="C43" s="327"/>
-      <c r="D43" s="328">
+      <c r="C43" s="384"/>
+      <c r="D43" s="385">
         <v>67530696.309</v>
       </c>
-      <c r="E43" s="329"/>
-      <c r="F43" s="23">
+      <c r="E43" s="386"/>
+      <c r="F43" s="19">
         <v>9.5560420115791932E-3</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="14">
         <v>87448.106</v>
       </c>
-      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="19.5" hidden="1" customHeight="1">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="285">
+      <c r="B44" s="210">
         <v>72530161.031000003</v>
       </c>
-      <c r="C44" s="286"/>
-      <c r="D44" s="295">
+      <c r="C44" s="211"/>
+      <c r="D44" s="212">
         <v>72530161.031000003</v>
       </c>
-      <c r="E44" s="296"/>
-      <c r="F44" s="21">
+      <c r="E44" s="213"/>
+      <c r="F44" s="18">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="14">
         <v>33163</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A45" s="19">
+    <row r="45" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="16">
         <f>X月!A41</f>
         <v>0</v>
       </c>
-      <c r="B45" s="285">
+      <c r="B45" s="210">
         <f>X月!B41</f>
         <v>0</v>
       </c>
-      <c r="C45" s="286"/>
-      <c r="D45" s="295">
+      <c r="C45" s="211"/>
+      <c r="D45" s="212">
         <f>X月!D41</f>
         <v>0</v>
       </c>
-      <c r="E45" s="296"/>
-      <c r="F45" s="18">
+      <c r="E45" s="213"/>
+      <c r="F45" s="15">
         <f>X月!F41</f>
         <v>0</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="14">
         <f>X月!G41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="19">
+    <row r="46" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="16">
         <f>X月!A42</f>
         <v>0</v>
       </c>
-      <c r="B46" s="285">
+      <c r="B46" s="210">
         <f>X月!B42</f>
         <v>0</v>
       </c>
-      <c r="C46" s="286"/>
-      <c r="D46" s="295">
+      <c r="C46" s="211"/>
+      <c r="D46" s="212">
         <f>X月!D42</f>
         <v>0</v>
       </c>
-      <c r="E46" s="296"/>
-      <c r="F46" s="18">
+      <c r="E46" s="213"/>
+      <c r="F46" s="15">
         <f>X月!F42</f>
         <v>0</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="14">
         <f>X月!G42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A47" s="19">
+    <row r="47" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="16">
         <f>X月!A43</f>
         <v>0</v>
       </c>
-      <c r="B47" s="285">
+      <c r="B47" s="210">
         <f>X月!B43</f>
         <v>0</v>
       </c>
-      <c r="C47" s="286"/>
-      <c r="D47" s="295">
+      <c r="C47" s="211"/>
+      <c r="D47" s="212">
         <f>X月!D43</f>
         <v>0</v>
       </c>
-      <c r="E47" s="296"/>
-      <c r="F47" s="18">
+      <c r="E47" s="213"/>
+      <c r="F47" s="15">
         <f>X月!F43</f>
         <v>0</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="14">
         <f>X月!G43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="19">
+    <row r="48" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="16">
         <f>X月!A44</f>
         <v>0</v>
       </c>
-      <c r="B48" s="285">
+      <c r="B48" s="210">
         <f>X月!B44</f>
         <v>0</v>
       </c>
-      <c r="C48" s="286"/>
-      <c r="D48" s="295">
+      <c r="C48" s="211"/>
+      <c r="D48" s="212">
         <f>X月!D44</f>
         <v>0</v>
       </c>
-      <c r="E48" s="296"/>
-      <c r="F48" s="18">
+      <c r="E48" s="213"/>
+      <c r="F48" s="15">
         <f>X月!F44</f>
         <v>0</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="14">
         <f>X月!G44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A49" s="19">
+    <row r="49" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="16">
         <f>X月!A45</f>
         <v>0</v>
       </c>
-      <c r="B49" s="285">
+      <c r="B49" s="210">
         <f>X月!B45</f>
         <v>0</v>
       </c>
-      <c r="C49" s="286"/>
-      <c r="D49" s="295">
+      <c r="C49" s="211"/>
+      <c r="D49" s="212">
         <f>X月!D45</f>
         <v>0</v>
       </c>
-      <c r="E49" s="296"/>
-      <c r="F49" s="18">
+      <c r="E49" s="213"/>
+      <c r="F49" s="15">
         <f>X月!F45</f>
         <v>0</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="14">
         <f>X月!G45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A50" s="19">
+    <row r="50" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="16">
         <f>X月!A46</f>
         <v>0</v>
       </c>
-      <c r="B50" s="285">
+      <c r="B50" s="210">
         <f>X月!B46</f>
         <v>0</v>
       </c>
-      <c r="C50" s="286"/>
-      <c r="D50" s="295">
+      <c r="C50" s="211"/>
+      <c r="D50" s="212">
         <f>X月!D46</f>
         <v>0</v>
       </c>
-      <c r="E50" s="296"/>
-      <c r="F50" s="18">
+      <c r="E50" s="213"/>
+      <c r="F50" s="15">
         <f>X月!F46</f>
         <v>0</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="14">
         <f>X月!G46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A51" s="19">
+    <row r="51" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A51" s="16">
         <f>X月!A47</f>
         <v>0</v>
       </c>
-      <c r="B51" s="285">
+      <c r="B51" s="210">
         <f>X月!B47</f>
         <v>0</v>
       </c>
-      <c r="C51" s="286"/>
-      <c r="D51" s="295">
+      <c r="C51" s="211"/>
+      <c r="D51" s="212">
         <f>X月!D47</f>
         <v>0</v>
       </c>
-      <c r="E51" s="296"/>
-      <c r="F51" s="18">
+      <c r="E51" s="213"/>
+      <c r="F51" s="15">
         <f>X月!F47</f>
         <v>0</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="14">
         <f>X月!G47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A52" s="19">
+    <row r="52" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A52" s="16">
         <f>X月!A48</f>
         <v>0</v>
       </c>
-      <c r="B52" s="285">
+      <c r="B52" s="210">
         <f>X月!B48</f>
         <v>0</v>
       </c>
-      <c r="C52" s="286"/>
-      <c r="D52" s="295">
+      <c r="C52" s="211"/>
+      <c r="D52" s="212">
         <f>X月!D48</f>
         <v>0</v>
       </c>
-      <c r="E52" s="296"/>
-      <c r="F52" s="18">
+      <c r="E52" s="213"/>
+      <c r="F52" s="15">
         <f>X月!F48</f>
         <v>0</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="14">
         <f>X月!G48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A53" s="19">
+    <row r="53" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A53" s="16">
         <f>X月!A49</f>
         <v>0</v>
       </c>
-      <c r="B53" s="285">
+      <c r="B53" s="210">
         <f>X月!B49</f>
         <v>0</v>
       </c>
-      <c r="C53" s="286"/>
-      <c r="D53" s="295">
+      <c r="C53" s="211"/>
+      <c r="D53" s="212">
         <f>X月!D49</f>
         <v>0</v>
       </c>
-      <c r="E53" s="296"/>
-      <c r="F53" s="18">
+      <c r="E53" s="213"/>
+      <c r="F53" s="15">
         <f>X月!F49</f>
         <v>0</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="14">
         <f>X月!G49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A54" s="19">
+    <row r="54" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A54" s="16">
         <f>X月!A50</f>
         <v>0</v>
       </c>
-      <c r="B54" s="285">
+      <c r="B54" s="210">
         <f>X月!B50:C50</f>
         <v>0</v>
       </c>
-      <c r="C54" s="286"/>
-      <c r="D54" s="295">
+      <c r="C54" s="211"/>
+      <c r="D54" s="212">
         <f>X月!D50:E50</f>
         <v>0</v>
       </c>
-      <c r="E54" s="296"/>
-      <c r="F54" s="18">
+      <c r="E54" s="213"/>
+      <c r="F54" s="15">
         <f>X月!F50</f>
         <v>0</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="14">
         <f>X月!G50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A55" s="16">
+    <row r="55" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1">
+      <c r="A55" s="13">
         <f>X月!A51</f>
         <v>0</v>
       </c>
-      <c r="B55" s="318">
+      <c r="B55" s="390">
         <f>X月!B51</f>
         <v>0</v>
       </c>
-      <c r="C55" s="319"/>
-      <c r="D55" s="320">
+      <c r="C55" s="391"/>
+      <c r="D55" s="392">
         <f>X月!D51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="321"/>
-      <c r="F55" s="15">
+      <c r="E55" s="393"/>
+      <c r="F55" s="12">
         <f>X月!F51</f>
         <v>0</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="11">
         <f>X月!G51</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="183.75" customHeight="1">
-      <c r="A56" s="322" t="s">
+      <c r="A56" s="394" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="323"/>
-      <c r="C56" s="323"/>
-      <c r="D56" s="323"/>
-      <c r="E56" s="323"/>
-      <c r="F56" s="323"/>
-      <c r="G56" s="323"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-    </row>
-    <row r="57" spans="1:14" s="110" customFormat="1" ht="21" customHeight="1">
-      <c r="A57" s="107" t="s">
+      <c r="B56" s="395"/>
+      <c r="C56" s="395"/>
+      <c r="D56" s="395"/>
+      <c r="E56" s="395"/>
+      <c r="F56" s="395"/>
+      <c r="G56" s="395"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" s="106" customFormat="1" ht="21" customHeight="1">
+      <c r="A57" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="108"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="109"/>
-    </row>
-    <row r="58" spans="1:14" s="113" customFormat="1" ht="18">
-      <c r="A58" s="13" t="s">
+      <c r="B57" s="104"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="105"/>
+    </row>
+    <row r="58" spans="1:14" s="109" customFormat="1" ht="17.399999999999999">
+      <c r="A58" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="324">
+      <c r="B58" s="396">
         <f>B55-B29</f>
         <v>0</v>
       </c>
-      <c r="C58" s="324"/>
-      <c r="D58" s="325">
+      <c r="C58" s="396"/>
+      <c r="D58" s="397">
         <f>D55-B33-B37</f>
         <v>0</v>
       </c>
-      <c r="E58" s="325"/>
-      <c r="F58" s="12" t="e">
+      <c r="E58" s="397"/>
+      <c r="F58" s="9" t="e">
         <f>F55-B38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="111"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="112"/>
-      <c r="L58" s="112"/>
-      <c r="M58" s="112"/>
-      <c r="N58" s="112"/>
-    </row>
-    <row r="59" spans="1:14" ht="18">
-      <c r="A59" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="315">
+      <c r="G58" s="107"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="108"/>
+    </row>
+    <row r="59" spans="1:14" ht="17.399999999999999">
+      <c r="A59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="387">
         <f>B55-B53</f>
         <v>0</v>
       </c>
-      <c r="C59" s="315"/>
-      <c r="D59" s="316">
+      <c r="C59" s="387"/>
+      <c r="D59" s="388">
         <f>D55-D53</f>
         <v>0</v>
       </c>
-      <c r="E59" s="316"/>
-      <c r="F59" s="114">
+      <c r="E59" s="388"/>
+      <c r="F59" s="110">
         <f>F55-F54</f>
         <v>0</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-    </row>
-    <row r="60" spans="1:14" ht="18">
-      <c r="A60" s="5"/>
-      <c r="B60" s="317"/>
-      <c r="C60" s="317"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-    </row>
-    <row r="61" spans="1:14" ht="18">
-      <c r="A61" s="5"/>
-      <c r="B61" s="317"/>
-      <c r="C61" s="317"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:14" ht="17.399999999999999">
+      <c r="B60" s="389"/>
+      <c r="C60" s="389"/>
+    </row>
+    <row r="61" spans="1:14" ht="17.399999999999999">
+      <c r="B61" s="389"/>
+      <c r="C61" s="389"/>
     </row>
     <row r="63" spans="1:14">
       <c r="J63" s="4"/>
@@ -10048,6 +10098,89 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="D11:D12"/>
@@ -10066,89 +10199,6 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
